--- a/Code/Results/Cases/Case_1_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9883975563083269</v>
+        <v>1.073391145793255</v>
       </c>
       <c r="D2">
-        <v>1.032427853201777</v>
+        <v>1.058725556297544</v>
       </c>
       <c r="E2">
-        <v>1.007570755853851</v>
+        <v>1.07437935542267</v>
       </c>
       <c r="F2">
-        <v>1.025750275695474</v>
+        <v>1.077832230460339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048584389141009</v>
+        <v>1.043165514517731</v>
       </c>
       <c r="J2">
-        <v>1.010930920404606</v>
+        <v>1.078305890488911</v>
       </c>
       <c r="K2">
-        <v>1.043453172018857</v>
+        <v>1.06145700513595</v>
       </c>
       <c r="L2">
-        <v>1.018925616094944</v>
+        <v>1.077068723531604</v>
       </c>
       <c r="M2">
-        <v>1.03686215626936</v>
+        <v>1.080512494309527</v>
       </c>
       <c r="N2">
-        <v>1.012366558266978</v>
+        <v>1.07983720853682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00068598858364</v>
+        <v>1.075658260135517</v>
       </c>
       <c r="D3">
-        <v>1.037804706266535</v>
+        <v>1.059703262075876</v>
       </c>
       <c r="E3">
-        <v>1.01751828948184</v>
+        <v>1.076244415215817</v>
       </c>
       <c r="F3">
-        <v>1.034172468931894</v>
+        <v>1.079397571625208</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05064931118151</v>
+        <v>1.043449312399833</v>
       </c>
       <c r="J3">
-        <v>1.021157970311371</v>
+        <v>1.080225538171354</v>
       </c>
       <c r="K3">
-        <v>1.04797568243663</v>
+        <v>1.062248385890024</v>
       </c>
       <c r="L3">
-        <v>1.027931821858062</v>
+        <v>1.078748326518776</v>
       </c>
       <c r="M3">
-        <v>1.044386008282358</v>
+        <v>1.081893780964458</v>
       </c>
       <c r="N3">
-        <v>1.022608131757669</v>
+        <v>1.081759582339159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008290550825112</v>
+        <v>1.077120534065552</v>
       </c>
       <c r="D4">
-        <v>1.041146377487128</v>
+        <v>1.060333136967861</v>
       </c>
       <c r="E4">
-        <v>1.023682412008961</v>
+        <v>1.077447007264279</v>
       </c>
       <c r="F4">
-        <v>1.039395901948328</v>
+        <v>1.080406500899334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051916277481766</v>
+        <v>1.043630431142659</v>
       </c>
       <c r="J4">
-        <v>1.027484534987177</v>
+        <v>1.081462857827303</v>
       </c>
       <c r="K4">
-        <v>1.050772324445533</v>
+        <v>1.062757084080051</v>
       </c>
       <c r="L4">
-        <v>1.033503172451071</v>
+        <v>1.079830485781488</v>
       </c>
       <c r="M4">
-        <v>1.049041013094363</v>
+        <v>1.082783120617612</v>
       </c>
       <c r="N4">
-        <v>1.028943680880982</v>
+        <v>1.082998659130942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011411631329779</v>
+        <v>1.077734178878304</v>
       </c>
       <c r="D5">
-        <v>1.042520697963291</v>
+        <v>1.060597283125925</v>
       </c>
       <c r="E5">
-        <v>1.026213948310166</v>
+        <v>1.077951588396974</v>
       </c>
       <c r="F5">
-        <v>1.04154194942927</v>
+        <v>1.080829726771562</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052433438900124</v>
+        <v>1.043705974614997</v>
       </c>
       <c r="J5">
-        <v>1.030080359892794</v>
+        <v>1.081981898294406</v>
       </c>
       <c r="K5">
-        <v>1.051919223021645</v>
+        <v>1.062970140851216</v>
       </c>
       <c r="L5">
-        <v>1.035789027729692</v>
+        <v>1.080284332702117</v>
       </c>
       <c r="M5">
-        <v>1.050950880521226</v>
+        <v>1.083155951790691</v>
       </c>
       <c r="N5">
-        <v>1.031543192155711</v>
+        <v>1.083518436695043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011931415116548</v>
+        <v>1.077837149195752</v>
       </c>
       <c r="D6">
-        <v>1.0427497269041</v>
+        <v>1.060641596380569</v>
       </c>
       <c r="E6">
-        <v>1.02663563768183</v>
+        <v>1.078036252491302</v>
       </c>
       <c r="F6">
-        <v>1.041899469258761</v>
+        <v>1.080900734357653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052519394371173</v>
+        <v>1.0437186236906</v>
       </c>
       <c r="J6">
-        <v>1.030512619648094</v>
+        <v>1.082068982018195</v>
       </c>
       <c r="K6">
-        <v>1.052110162777674</v>
+        <v>1.063005867364639</v>
       </c>
       <c r="L6">
-        <v>1.036169662234485</v>
+        <v>1.080360472145054</v>
       </c>
       <c r="M6">
-        <v>1.051268900311187</v>
+        <v>1.083218490866356</v>
       </c>
       <c r="N6">
-        <v>1.031976065769444</v>
+        <v>1.083605644087708</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008332544264401</v>
+        <v>1.077128737880084</v>
       </c>
       <c r="D7">
-        <v>1.041164858195619</v>
+        <v>1.060336669056305</v>
       </c>
       <c r="E7">
-        <v>1.023716467136756</v>
+        <v>1.077453753355084</v>
       </c>
       <c r="F7">
-        <v>1.039424768300849</v>
+        <v>1.080412159686267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051923247274919</v>
+        <v>1.043631442906038</v>
       </c>
       <c r="J7">
-        <v>1.027519464374302</v>
+        <v>1.081469797672279</v>
       </c>
       <c r="K7">
-        <v>1.050787759812601</v>
+        <v>1.062759934086349</v>
       </c>
       <c r="L7">
-        <v>1.033533931421075</v>
+        <v>1.079836554370819</v>
       </c>
       <c r="M7">
-        <v>1.04906671300424</v>
+        <v>1.082788106497865</v>
       </c>
       <c r="N7">
-        <v>1.028978659871843</v>
+        <v>1.083005608831294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.992626958293448</v>
+        <v>1.074158319283526</v>
       </c>
       <c r="D8">
-        <v>1.034275010296409</v>
+        <v>1.059056554724815</v>
       </c>
       <c r="E8">
-        <v>1.010992510099433</v>
+        <v>1.075010550273976</v>
       </c>
       <c r="F8">
-        <v>1.028646224664141</v>
+        <v>1.078362073794092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049297266983119</v>
+        <v>1.04326194892602</v>
       </c>
       <c r="J8">
-        <v>1.014451220294652</v>
+        <v>1.078955657950978</v>
       </c>
       <c r="K8">
-        <v>1.045009888049875</v>
+        <v>1.06172516073609</v>
       </c>
       <c r="L8">
-        <v>1.022025611471838</v>
+        <v>1.077637330559785</v>
       </c>
       <c r="M8">
-        <v>1.039451656873881</v>
+        <v>1.080980237282447</v>
       </c>
       <c r="N8">
-        <v>1.015891857386651</v>
+        <v>1.080487898743212</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9619073952536498</v>
+        <v>1.068886694976517</v>
       </c>
       <c r="D9">
-        <v>1.020952447242052</v>
+        <v>1.056779237326097</v>
       </c>
       <c r="E9">
-        <v>0.9861925840575509</v>
+        <v>1.070671894287559</v>
       </c>
       <c r="F9">
-        <v>1.007689449306235</v>
+        <v>1.074718488429433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044081697140407</v>
+        <v>1.042591398176745</v>
       </c>
       <c r="J9">
-        <v>0.9888809251984735</v>
+        <v>1.074487352854433</v>
       </c>
       <c r="K9">
-        <v>1.033714492022448</v>
+        <v>1.059875487909906</v>
       </c>
       <c r="L9">
-        <v>0.9995137210000407</v>
+        <v>1.073725366898407</v>
       </c>
       <c r="M9">
-        <v>1.020658990423734</v>
+        <v>1.077759727608713</v>
       </c>
       <c r="N9">
-        <v>0.9902852495384827</v>
+        <v>1.076013248140908</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9386974530936141</v>
+        <v>1.065345232014051</v>
       </c>
       <c r="D10">
-        <v>1.011052516030624</v>
+        <v>1.055245931631867</v>
       </c>
       <c r="E10">
-        <v>0.9675498266940943</v>
+        <v>1.067755506243974</v>
       </c>
       <c r="F10">
-        <v>0.9919952678690845</v>
+        <v>1.072267396266602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040107240547341</v>
+        <v>1.042131036652171</v>
       </c>
       <c r="J10">
-        <v>0.9695736579131643</v>
+        <v>1.071481269185644</v>
       </c>
       <c r="K10">
-        <v>1.025225040727942</v>
+        <v>1.058624147248563</v>
       </c>
       <c r="L10">
-        <v>0.9825307840274643</v>
+        <v>1.071091355166349</v>
       </c>
       <c r="M10">
-        <v>1.006510570099477</v>
+        <v>1.075588230818389</v>
       </c>
       <c r="N10">
-        <v>0.9709505637190541</v>
+        <v>1.073002895488507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9277879897493221</v>
+        <v>1.063804892556802</v>
       </c>
       <c r="D11">
-        <v>1.00645613398454</v>
+        <v>1.054578282783592</v>
       </c>
       <c r="E11">
-        <v>0.9588200028593626</v>
+        <v>1.06648666445966</v>
       </c>
       <c r="F11">
-        <v>0.9846674914551313</v>
+        <v>1.071200562347597</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038237171437449</v>
+        <v>1.041928477889593</v>
       </c>
       <c r="J11">
-        <v>0.9605072083184929</v>
+        <v>1.070172783664886</v>
       </c>
       <c r="K11">
-        <v>1.021257315539711</v>
+        <v>1.058077852880615</v>
       </c>
       <c r="L11">
-        <v>0.9745626666679454</v>
+        <v>1.069944310246823</v>
       </c>
       <c r="M11">
-        <v>0.9998844670949163</v>
+        <v>1.074641895967232</v>
       </c>
       <c r="N11">
-        <v>0.9618712387260218</v>
+        <v>1.071692551768225</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9235821492015078</v>
+        <v>1.063231673440057</v>
       </c>
       <c r="D12">
-        <v>1.004694555703761</v>
+        <v>1.054329718373124</v>
       </c>
       <c r="E12">
-        <v>0.9554605611136826</v>
+        <v>1.066014425830442</v>
       </c>
       <c r="F12">
-        <v>0.9818515715382423</v>
+        <v>1.07080344480243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03751659296558</v>
+        <v>1.041852749981141</v>
       </c>
       <c r="J12">
-        <v>0.9570138312403877</v>
+        <v>1.069685696003625</v>
       </c>
       <c r="K12">
-        <v>1.019732364739914</v>
+        <v>1.057874254303075</v>
       </c>
       <c r="L12">
-        <v>0.9714938814244837</v>
+        <v>1.069517242862396</v>
       </c>
       <c r="M12">
-        <v>0.9973349267030875</v>
+        <v>1.074289453033465</v>
       </c>
       <c r="N12">
-        <v>0.9583729006517696</v>
+        <v>1.071204772386614</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9244917368882263</v>
+        <v>1.063354679843549</v>
       </c>
       <c r="D13">
-        <v>1.005075024508635</v>
+        <v>1.054383062257455</v>
       </c>
       <c r="E13">
-        <v>0.9561868039501399</v>
+        <v>1.066115765366761</v>
       </c>
       <c r="F13">
-        <v>0.9824601224629146</v>
+        <v>1.070888666597659</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037672401724389</v>
+        <v>1.041869016063055</v>
       </c>
       <c r="J13">
-        <v>0.9577692365938757</v>
+        <v>1.069790226343113</v>
       </c>
       <c r="K13">
-        <v>1.020061927185967</v>
+        <v>1.057917957864869</v>
       </c>
       <c r="L13">
-        <v>0.9721574037076834</v>
+        <v>1.069608896132835</v>
       </c>
       <c r="M13">
-        <v>0.9978860614725434</v>
+        <v>1.074365095760073</v>
       </c>
       <c r="N13">
-        <v>0.9591293787675058</v>
+        <v>1.071309451171174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9274436334936647</v>
+        <v>1.063757532100696</v>
       </c>
       <c r="D14">
-        <v>1.006311681142326</v>
+        <v>1.054557748064426</v>
       </c>
       <c r="E14">
-        <v>0.9585448155862764</v>
+        <v>1.066447648295325</v>
       </c>
       <c r="F14">
-        <v>0.9844367411966385</v>
+        <v>1.071167753915721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038178161665605</v>
+        <v>1.041922228192409</v>
       </c>
       <c r="J14">
-        <v>0.960221142142566</v>
+        <v>1.070132542611479</v>
       </c>
       <c r="K14">
-        <v>1.021132356005523</v>
+        <v>1.058061037306232</v>
       </c>
       <c r="L14">
-        <v>0.9743113389927278</v>
+        <v>1.069909029360391</v>
       </c>
       <c r="M14">
-        <v>0.9996756126604646</v>
+        <v>1.074612782061647</v>
       </c>
       <c r="N14">
-        <v>0.961584766303313</v>
+        <v>1.071652253567906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9292411922753857</v>
+        <v>1.064005599961054</v>
       </c>
       <c r="D15">
-        <v>1.007066165672645</v>
+        <v>1.054665301893227</v>
       </c>
       <c r="E15">
-        <v>0.9599815619428111</v>
+        <v>1.066652007646046</v>
       </c>
       <c r="F15">
-        <v>0.9856416486339464</v>
+        <v>1.071339595788809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038486215373587</v>
+        <v>1.041954949053244</v>
       </c>
       <c r="J15">
-        <v>0.9617145059603682</v>
+        <v>1.070343313831195</v>
       </c>
       <c r="K15">
-        <v>1.021784849466595</v>
+        <v>1.058149102760003</v>
       </c>
       <c r="L15">
-        <v>0.9756234145643298</v>
+        <v>1.070093817508942</v>
       </c>
       <c r="M15">
-        <v>1.000766053551106</v>
+        <v>1.074765265622147</v>
       </c>
       <c r="N15">
-        <v>0.9630802508690275</v>
+        <v>1.071863324106929</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9394014353553063</v>
+        <v>1.06544731150211</v>
       </c>
       <c r="D16">
-        <v>1.011350422837291</v>
+        <v>1.055290161997227</v>
       </c>
       <c r="E16">
-        <v>0.9681139167970836</v>
+        <v>1.067839585668003</v>
       </c>
       <c r="F16">
-        <v>0.9924692577725871</v>
+        <v>1.07233808084752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040227927584092</v>
+        <v>1.04214441156773</v>
       </c>
       <c r="J16">
-        <v>0.9701589366463139</v>
+        <v>1.07156796244952</v>
       </c>
       <c r="K16">
-        <v>1.025481637143925</v>
+        <v>1.058660308187229</v>
       </c>
       <c r="L16">
-        <v>0.983045328478964</v>
+        <v>1.07116734149022</v>
       </c>
       <c r="M16">
-        <v>1.006938744498128</v>
+        <v>1.075650906413862</v>
       </c>
       <c r="N16">
-        <v>0.9715366736151371</v>
+        <v>1.073089711866761</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9455293448704228</v>
+        <v>1.06634979550647</v>
       </c>
       <c r="D17">
-        <v>1.013950058253059</v>
+        <v>1.055681116996293</v>
       </c>
       <c r="E17">
-        <v>0.9730278561396473</v>
+        <v>1.068582888271954</v>
       </c>
       <c r="F17">
-        <v>0.9966007431279831</v>
+        <v>1.072962917328242</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041278313351256</v>
+        <v>1.042262391085002</v>
       </c>
       <c r="J17">
-        <v>0.9752545861519516</v>
+        <v>1.072334301096649</v>
       </c>
       <c r="K17">
-        <v>1.027717834978082</v>
+        <v>1.058979773162923</v>
       </c>
       <c r="L17">
-        <v>0.9875259307968679</v>
+        <v>1.071838975291798</v>
       </c>
       <c r="M17">
-        <v>1.010668637302218</v>
+        <v>1.076204807527998</v>
       </c>
       <c r="N17">
-        <v>0.976639559527552</v>
+        <v>1.07385713880267</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9490226849616737</v>
+        <v>1.066875539570612</v>
       </c>
       <c r="D18">
-        <v>1.015437121016463</v>
+        <v>1.05590879654239</v>
       </c>
       <c r="E18">
-        <v>0.975832082372535</v>
+        <v>1.069015864607074</v>
       </c>
       <c r="F18">
-        <v>0.9989603525047995</v>
+        <v>1.07332684523449</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04187688142456</v>
+        <v>1.042330896273649</v>
       </c>
       <c r="J18">
-        <v>0.9781602092059403</v>
+        <v>1.072780636482088</v>
       </c>
       <c r="K18">
-        <v>1.028994605636612</v>
+        <v>1.059165682538415</v>
       </c>
       <c r="L18">
-        <v>0.9900814465520575</v>
+        <v>1.072230102584525</v>
       </c>
       <c r="M18">
-        <v>1.012797055781891</v>
+        <v>1.076527305192947</v>
       </c>
       <c r="N18">
-        <v>0.9795493088995567</v>
+        <v>1.074304108035551</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9502007278193133</v>
+        <v>1.067054693956595</v>
       </c>
       <c r="D19">
-        <v>1.015939411434472</v>
+        <v>1.055986369021443</v>
       </c>
       <c r="E19">
-        <v>0.9767782074126894</v>
+        <v>1.069163400922431</v>
       </c>
       <c r="F19">
-        <v>0.9997567703884855</v>
+        <v>1.073450846251036</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042078678441795</v>
+        <v>1.042354202293307</v>
       </c>
       <c r="J19">
-        <v>0.9791401690317549</v>
+        <v>1.072932714825361</v>
       </c>
       <c r="K19">
-        <v>1.029425467952346</v>
+        <v>1.059229000375065</v>
       </c>
       <c r="L19">
-        <v>0.9909434211152764</v>
+        <v>1.072363361632017</v>
       </c>
       <c r="M19">
-        <v>1.013515137633001</v>
+        <v>1.076637170230733</v>
       </c>
       <c r="N19">
-        <v>0.980530660380727</v>
+        <v>1.074456402347516</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9448804082829063</v>
+        <v>1.066253036007212</v>
       </c>
       <c r="D20">
-        <v>1.013674218118437</v>
+        <v>1.055639208325255</v>
       </c>
       <c r="E20">
-        <v>0.9725071638714419</v>
+        <v>1.068503199085087</v>
       </c>
       <c r="F20">
-        <v>0.9961627580006086</v>
+        <v>1.072895933128249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041167098438192</v>
+        <v>1.042249765127192</v>
       </c>
       <c r="J20">
-        <v>0.974714882791392</v>
+        <v>1.072252148393929</v>
       </c>
       <c r="K20">
-        <v>1.027480810175856</v>
+        <v>1.058945542062404</v>
       </c>
       <c r="L20">
-        <v>0.9870513047350468</v>
+        <v>1.071766980218837</v>
       </c>
       <c r="M20">
-        <v>1.010273417944106</v>
+        <v>1.076145439685701</v>
       </c>
       <c r="N20">
-        <v>0.9760990897263155</v>
+        <v>1.073774869433689</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.926578845082803</v>
+        <v>1.063638931949987</v>
       </c>
       <c r="D21">
-        <v>1.005949087944674</v>
+        <v>1.054506323272885</v>
       </c>
       <c r="E21">
-        <v>0.9578538345839012</v>
+        <v>1.066349943070145</v>
       </c>
       <c r="F21">
-        <v>0.9838574059239592</v>
+        <v>1.071085593245152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038029977821599</v>
+        <v>1.041906572073314</v>
       </c>
       <c r="J21">
-        <v>0.9595027722541422</v>
+        <v>1.070031768460766</v>
       </c>
       <c r="K21">
-        <v>1.020818622807333</v>
+        <v>1.058018922853011</v>
       </c>
       <c r="L21">
-        <v>0.9736802282225965</v>
+        <v>1.069820675536752</v>
       </c>
       <c r="M21">
-        <v>0.9991511971937581</v>
+        <v>1.074539870520133</v>
       </c>
       <c r="N21">
-        <v>0.9608653762472491</v>
+        <v>1.07155133630634</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9141654387629168</v>
+        <v>1.061989140230612</v>
       </c>
       <c r="D22">
-        <v>1.000772368158109</v>
+        <v>1.053790730405412</v>
       </c>
       <c r="E22">
-        <v>0.947951835759169</v>
+        <v>1.064990685366184</v>
       </c>
       <c r="F22">
-        <v>0.9755661260294115</v>
+        <v>1.069942443509787</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035904833091717</v>
+        <v>1.041687963791746</v>
       </c>
       <c r="J22">
-        <v>0.9491967964150114</v>
+        <v>1.068629590926973</v>
       </c>
       <c r="K22">
-        <v>1.016328539796818</v>
+        <v>1.057432377618445</v>
       </c>
       <c r="L22">
-        <v>0.9646300394117046</v>
+        <v>1.068591134893955</v>
       </c>
       <c r="M22">
-        <v>0.9916376758856598</v>
+        <v>1.073524982230447</v>
       </c>
       <c r="N22">
-        <v>0.9505447647403151</v>
+        <v>1.070147167519616</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9208421311366436</v>
+        <v>1.062864326446042</v>
       </c>
       <c r="D23">
-        <v>1.003550140810392</v>
+        <v>1.054170396678463</v>
       </c>
       <c r="E23">
-        <v>0.9532738475861209</v>
+        <v>1.065711777125742</v>
       </c>
       <c r="F23">
-        <v>0.9800198824194759</v>
+        <v>1.070548922477027</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037047353973201</v>
+        <v>1.041804122017262</v>
       </c>
       <c r="J23">
-        <v>0.9547386124922086</v>
+        <v>1.069373504098967</v>
       </c>
       <c r="K23">
-        <v>1.018740406009698</v>
+        <v>1.057743693855322</v>
       </c>
       <c r="L23">
-        <v>0.9694956453097275</v>
+        <v>1.069243498674253</v>
       </c>
       <c r="M23">
-        <v>0.9956755547765033</v>
+        <v>1.074063513055716</v>
       </c>
       <c r="N23">
-        <v>0.9560944508319968</v>
+        <v>1.070892137133643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9451738832300551</v>
+        <v>1.066296759496704</v>
       </c>
       <c r="D24">
-        <v>1.013798948263063</v>
+        <v>1.055658146155433</v>
       </c>
       <c r="E24">
-        <v>0.9727426325591527</v>
+        <v>1.068539208988122</v>
       </c>
       <c r="F24">
-        <v>0.9963608187856204</v>
+        <v>1.072926202037761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041217394998598</v>
+        <v>1.042255471212656</v>
       </c>
       <c r="J24">
-        <v>0.9749589558508511</v>
+        <v>1.072289271693013</v>
       </c>
       <c r="K24">
-        <v>1.027587996135694</v>
+        <v>1.05896101094904</v>
       </c>
       <c r="L24">
-        <v>0.9872659456702293</v>
+        <v>1.071799513624677</v>
       </c>
       <c r="M24">
-        <v>1.010452145353969</v>
+        <v>1.076172267260477</v>
       </c>
       <c r="N24">
-        <v>0.9763435093975147</v>
+        <v>1.073812045452116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9702714155027867</v>
+        <v>1.070254160674468</v>
       </c>
       <c r="D25">
-        <v>1.024556977755253</v>
+        <v>1.057370596020469</v>
       </c>
       <c r="E25">
-        <v>0.9929319001205861</v>
+        <v>1.07179765241344</v>
       </c>
       <c r="F25">
-        <v>1.013376406867229</v>
+        <v>1.075664241495245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045508987743441</v>
+        <v>1.042767082332178</v>
       </c>
       <c r="J25">
-        <v>0.9958424243956744</v>
+        <v>1.075647193343127</v>
       </c>
       <c r="K25">
-        <v>1.036785674066312</v>
+        <v>1.060356843178307</v>
       </c>
       <c r="L25">
-        <v>1.005640939209876</v>
+        <v>1.074741188789528</v>
       </c>
       <c r="M25">
-        <v>1.025770560459834</v>
+        <v>1.078596542653539</v>
       </c>
       <c r="N25">
-        <v>0.9972566348630391</v>
+        <v>1.077174735736132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073391145793255</v>
+        <v>0.9883975563083255</v>
       </c>
       <c r="D2">
-        <v>1.058725556297544</v>
+        <v>1.032427853201777</v>
       </c>
       <c r="E2">
-        <v>1.07437935542267</v>
+        <v>1.00757075585385</v>
       </c>
       <c r="F2">
-        <v>1.077832230460339</v>
+        <v>1.025750275695473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043165514517731</v>
+        <v>1.048584389141009</v>
       </c>
       <c r="J2">
-        <v>1.078305890488911</v>
+        <v>1.010930920404605</v>
       </c>
       <c r="K2">
-        <v>1.06145700513595</v>
+        <v>1.043453172018856</v>
       </c>
       <c r="L2">
-        <v>1.077068723531604</v>
+        <v>1.018925616094944</v>
       </c>
       <c r="M2">
-        <v>1.080512494309527</v>
+        <v>1.03686215626936</v>
       </c>
       <c r="N2">
-        <v>1.07983720853682</v>
+        <v>1.012366558266977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075658260135517</v>
+        <v>1.000685988583642</v>
       </c>
       <c r="D3">
-        <v>1.059703262075876</v>
+        <v>1.037804706266535</v>
       </c>
       <c r="E3">
-        <v>1.076244415215817</v>
+        <v>1.017518289481841</v>
       </c>
       <c r="F3">
-        <v>1.079397571625208</v>
+        <v>1.034172468931895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043449312399833</v>
+        <v>1.05064931118151</v>
       </c>
       <c r="J3">
-        <v>1.080225538171354</v>
+        <v>1.021157970311372</v>
       </c>
       <c r="K3">
-        <v>1.062248385890024</v>
+        <v>1.04797568243663</v>
       </c>
       <c r="L3">
-        <v>1.078748326518776</v>
+        <v>1.027931821858063</v>
       </c>
       <c r="M3">
-        <v>1.081893780964458</v>
+        <v>1.044386008282359</v>
       </c>
       <c r="N3">
-        <v>1.081759582339159</v>
+        <v>1.022608131757671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077120534065552</v>
+        <v>1.008290550825111</v>
       </c>
       <c r="D4">
-        <v>1.060333136967861</v>
+        <v>1.041146377487128</v>
       </c>
       <c r="E4">
-        <v>1.077447007264279</v>
+        <v>1.02368241200896</v>
       </c>
       <c r="F4">
-        <v>1.080406500899334</v>
+        <v>1.039395901948327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043630431142659</v>
+        <v>1.051916277481766</v>
       </c>
       <c r="J4">
-        <v>1.081462857827303</v>
+        <v>1.027484534987177</v>
       </c>
       <c r="K4">
-        <v>1.062757084080051</v>
+        <v>1.050772324445532</v>
       </c>
       <c r="L4">
-        <v>1.079830485781488</v>
+        <v>1.033503172451071</v>
       </c>
       <c r="M4">
-        <v>1.082783120617612</v>
+        <v>1.049041013094362</v>
       </c>
       <c r="N4">
-        <v>1.082998659130942</v>
+        <v>1.028943680880982</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077734178878304</v>
+        <v>1.011411631329779</v>
       </c>
       <c r="D5">
-        <v>1.060597283125925</v>
+        <v>1.042520697963291</v>
       </c>
       <c r="E5">
-        <v>1.077951588396974</v>
+        <v>1.026213948310167</v>
       </c>
       <c r="F5">
-        <v>1.080829726771562</v>
+        <v>1.041541949429271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043705974614997</v>
+        <v>1.052433438900124</v>
       </c>
       <c r="J5">
-        <v>1.081981898294406</v>
+        <v>1.030080359892794</v>
       </c>
       <c r="K5">
-        <v>1.062970140851216</v>
+        <v>1.051919223021645</v>
       </c>
       <c r="L5">
-        <v>1.080284332702117</v>
+        <v>1.035789027729692</v>
       </c>
       <c r="M5">
-        <v>1.083155951790691</v>
+        <v>1.050950880521226</v>
       </c>
       <c r="N5">
-        <v>1.083518436695043</v>
+        <v>1.031543192155711</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077837149195752</v>
+        <v>1.011931415116549</v>
       </c>
       <c r="D6">
-        <v>1.060641596380569</v>
+        <v>1.042749726904101</v>
       </c>
       <c r="E6">
-        <v>1.078036252491302</v>
+        <v>1.02663563768183</v>
       </c>
       <c r="F6">
-        <v>1.080900734357653</v>
+        <v>1.041899469258761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0437186236906</v>
+        <v>1.052519394371174</v>
       </c>
       <c r="J6">
-        <v>1.082068982018195</v>
+        <v>1.030512619648095</v>
       </c>
       <c r="K6">
-        <v>1.063005867364639</v>
+        <v>1.052110162777675</v>
       </c>
       <c r="L6">
-        <v>1.080360472145054</v>
+        <v>1.036169662234486</v>
       </c>
       <c r="M6">
-        <v>1.083218490866356</v>
+        <v>1.051268900311188</v>
       </c>
       <c r="N6">
-        <v>1.083605644087708</v>
+        <v>1.031976065769445</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.077128737880084</v>
+        <v>1.0083325442644</v>
       </c>
       <c r="D7">
-        <v>1.060336669056305</v>
+        <v>1.041164858195619</v>
       </c>
       <c r="E7">
-        <v>1.077453753355084</v>
+        <v>1.023716467136755</v>
       </c>
       <c r="F7">
-        <v>1.080412159686267</v>
+        <v>1.039424768300849</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043631442906038</v>
+        <v>1.051923247274919</v>
       </c>
       <c r="J7">
-        <v>1.081469797672279</v>
+        <v>1.027519464374301</v>
       </c>
       <c r="K7">
-        <v>1.062759934086349</v>
+        <v>1.050787759812601</v>
       </c>
       <c r="L7">
-        <v>1.079836554370819</v>
+        <v>1.033533931421074</v>
       </c>
       <c r="M7">
-        <v>1.082788106497865</v>
+        <v>1.049066713004239</v>
       </c>
       <c r="N7">
-        <v>1.083005608831294</v>
+        <v>1.028978659871842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074158319283526</v>
+        <v>0.9926269582934495</v>
       </c>
       <c r="D8">
-        <v>1.059056554724815</v>
+        <v>1.03427501029641</v>
       </c>
       <c r="E8">
-        <v>1.075010550273976</v>
+        <v>1.010992510099434</v>
       </c>
       <c r="F8">
-        <v>1.078362073794092</v>
+        <v>1.028646224664142</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04326194892602</v>
+        <v>1.049297266983119</v>
       </c>
       <c r="J8">
-        <v>1.078955657950978</v>
+        <v>1.014451220294653</v>
       </c>
       <c r="K8">
-        <v>1.06172516073609</v>
+        <v>1.045009888049876</v>
       </c>
       <c r="L8">
-        <v>1.077637330559785</v>
+        <v>1.022025611471839</v>
       </c>
       <c r="M8">
-        <v>1.080980237282447</v>
+        <v>1.039451656873882</v>
       </c>
       <c r="N8">
-        <v>1.080487898743212</v>
+        <v>1.015891857386653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.068886694976517</v>
+        <v>0.9619073952536502</v>
       </c>
       <c r="D9">
-        <v>1.056779237326097</v>
+        <v>1.020952447242053</v>
       </c>
       <c r="E9">
-        <v>1.070671894287559</v>
+        <v>0.9861925840575514</v>
       </c>
       <c r="F9">
-        <v>1.074718488429433</v>
+        <v>1.007689449306235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042591398176745</v>
+        <v>1.044081697140407</v>
       </c>
       <c r="J9">
-        <v>1.074487352854433</v>
+        <v>0.988880925198474</v>
       </c>
       <c r="K9">
-        <v>1.059875487909906</v>
+        <v>1.033714492022449</v>
       </c>
       <c r="L9">
-        <v>1.073725366898407</v>
+        <v>0.9995137210000412</v>
       </c>
       <c r="M9">
-        <v>1.077759727608713</v>
+        <v>1.020658990423734</v>
       </c>
       <c r="N9">
-        <v>1.076013248140908</v>
+        <v>0.9902852495384832</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065345232014051</v>
+        <v>0.9386974530936145</v>
       </c>
       <c r="D10">
-        <v>1.055245931631867</v>
+        <v>1.011052516030625</v>
       </c>
       <c r="E10">
-        <v>1.067755506243974</v>
+        <v>0.9675498266940946</v>
       </c>
       <c r="F10">
-        <v>1.072267396266602</v>
+        <v>0.9919952678690849</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042131036652171</v>
+        <v>1.040107240547341</v>
       </c>
       <c r="J10">
-        <v>1.071481269185644</v>
+        <v>0.9695736579131647</v>
       </c>
       <c r="K10">
-        <v>1.058624147248563</v>
+        <v>1.025225040727942</v>
       </c>
       <c r="L10">
-        <v>1.071091355166349</v>
+        <v>0.9825307840274646</v>
       </c>
       <c r="M10">
-        <v>1.075588230818389</v>
+        <v>1.006510570099477</v>
       </c>
       <c r="N10">
-        <v>1.073002895488507</v>
+        <v>0.9709505637190542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063804892556802</v>
+        <v>0.9277879897493208</v>
       </c>
       <c r="D11">
-        <v>1.054578282783592</v>
+        <v>1.00645613398454</v>
       </c>
       <c r="E11">
-        <v>1.06648666445966</v>
+        <v>0.9588200028593615</v>
       </c>
       <c r="F11">
-        <v>1.071200562347597</v>
+        <v>0.9846674914551306</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041928477889593</v>
+        <v>1.038237171437449</v>
       </c>
       <c r="J11">
-        <v>1.070172783664886</v>
+        <v>0.9605072083184919</v>
       </c>
       <c r="K11">
-        <v>1.058077852880615</v>
+        <v>1.02125731553971</v>
       </c>
       <c r="L11">
-        <v>1.069944310246823</v>
+        <v>0.9745626666679444</v>
       </c>
       <c r="M11">
-        <v>1.074641895967232</v>
+        <v>0.9998844670949153</v>
       </c>
       <c r="N11">
-        <v>1.071692551768225</v>
+        <v>0.9618712387260206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063231673440057</v>
+        <v>0.9235821492015092</v>
       </c>
       <c r="D12">
-        <v>1.054329718373124</v>
+        <v>1.004694555703761</v>
       </c>
       <c r="E12">
-        <v>1.066014425830442</v>
+        <v>0.9554605611136837</v>
       </c>
       <c r="F12">
-        <v>1.07080344480243</v>
+        <v>0.9818515715382433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041852749981141</v>
+        <v>1.03751659296558</v>
       </c>
       <c r="J12">
-        <v>1.069685696003625</v>
+        <v>0.957013831240389</v>
       </c>
       <c r="K12">
-        <v>1.057874254303075</v>
+        <v>1.019732364739914</v>
       </c>
       <c r="L12">
-        <v>1.069517242862396</v>
+        <v>0.9714938814244849</v>
       </c>
       <c r="M12">
-        <v>1.074289453033465</v>
+        <v>0.9973349267030884</v>
       </c>
       <c r="N12">
-        <v>1.071204772386614</v>
+        <v>0.9583729006517709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063354679843549</v>
+        <v>0.9244917368882252</v>
       </c>
       <c r="D13">
-        <v>1.054383062257455</v>
+        <v>1.005075024508635</v>
       </c>
       <c r="E13">
-        <v>1.066115765366761</v>
+        <v>0.956186803950139</v>
       </c>
       <c r="F13">
-        <v>1.070888666597659</v>
+        <v>0.9824601224629141</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041869016063055</v>
+        <v>1.037672401724388</v>
       </c>
       <c r="J13">
-        <v>1.069790226343113</v>
+        <v>0.9577692365938748</v>
       </c>
       <c r="K13">
-        <v>1.057917957864869</v>
+        <v>1.020061927185967</v>
       </c>
       <c r="L13">
-        <v>1.069608896132835</v>
+        <v>0.9721574037076827</v>
       </c>
       <c r="M13">
-        <v>1.074365095760073</v>
+        <v>0.9978860614725431</v>
       </c>
       <c r="N13">
-        <v>1.071309451171174</v>
+        <v>0.9591293787675048</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063757532100696</v>
+        <v>0.9274436334936625</v>
       </c>
       <c r="D14">
-        <v>1.054557748064426</v>
+        <v>1.006311681142325</v>
       </c>
       <c r="E14">
-        <v>1.066447648295325</v>
+        <v>0.9585448155862746</v>
       </c>
       <c r="F14">
-        <v>1.071167753915721</v>
+        <v>0.9844367411966373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041922228192409</v>
+        <v>1.038178161665605</v>
       </c>
       <c r="J14">
-        <v>1.070132542611479</v>
+        <v>0.960221142142564</v>
       </c>
       <c r="K14">
-        <v>1.058061037306232</v>
+        <v>1.021132356005522</v>
       </c>
       <c r="L14">
-        <v>1.069909029360391</v>
+        <v>0.9743113389927262</v>
       </c>
       <c r="M14">
-        <v>1.074612782061647</v>
+        <v>0.9996756126604633</v>
       </c>
       <c r="N14">
-        <v>1.071652253567906</v>
+        <v>0.9615847663033107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064005599961054</v>
+        <v>0.9292411922753888</v>
       </c>
       <c r="D15">
-        <v>1.054665301893227</v>
+        <v>1.007066165672646</v>
       </c>
       <c r="E15">
-        <v>1.066652007646046</v>
+        <v>0.9599815619428137</v>
       </c>
       <c r="F15">
-        <v>1.071339595788809</v>
+        <v>0.9856416486339479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041954949053244</v>
+        <v>1.038486215373587</v>
       </c>
       <c r="J15">
-        <v>1.070343313831195</v>
+        <v>0.961714505960371</v>
       </c>
       <c r="K15">
-        <v>1.058149102760003</v>
+        <v>1.021784849466596</v>
       </c>
       <c r="L15">
-        <v>1.070093817508942</v>
+        <v>0.9756234145643321</v>
       </c>
       <c r="M15">
-        <v>1.074765265622147</v>
+        <v>1.000766053551108</v>
       </c>
       <c r="N15">
-        <v>1.071863324106929</v>
+        <v>0.9630802508690303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06544731150211</v>
+        <v>0.939401435355304</v>
       </c>
       <c r="D16">
-        <v>1.055290161997227</v>
+        <v>1.01135042283729</v>
       </c>
       <c r="E16">
-        <v>1.067839585668003</v>
+        <v>0.9681139167970814</v>
       </c>
       <c r="F16">
-        <v>1.07233808084752</v>
+        <v>0.9924692577725851</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04214441156773</v>
+        <v>1.040227927584092</v>
       </c>
       <c r="J16">
-        <v>1.07156796244952</v>
+        <v>0.9701589366463117</v>
       </c>
       <c r="K16">
-        <v>1.058660308187229</v>
+        <v>1.025481637143924</v>
       </c>
       <c r="L16">
-        <v>1.07116734149022</v>
+        <v>0.9830453284789619</v>
       </c>
       <c r="M16">
-        <v>1.075650906413862</v>
+        <v>1.006938744498126</v>
       </c>
       <c r="N16">
-        <v>1.073089711866761</v>
+        <v>0.9715366736151346</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06634979550647</v>
+        <v>0.9455293448704254</v>
       </c>
       <c r="D17">
-        <v>1.055681116996293</v>
+        <v>1.01395005825306</v>
       </c>
       <c r="E17">
-        <v>1.068582888271954</v>
+        <v>0.973027856139649</v>
       </c>
       <c r="F17">
-        <v>1.072962917328242</v>
+        <v>0.9966007431279845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042262391085002</v>
+        <v>1.041278313351256</v>
       </c>
       <c r="J17">
-        <v>1.072334301096649</v>
+        <v>0.9752545861519539</v>
       </c>
       <c r="K17">
-        <v>1.058979773162923</v>
+        <v>1.027717834978083</v>
       </c>
       <c r="L17">
-        <v>1.071838975291798</v>
+        <v>0.9875259307968699</v>
       </c>
       <c r="M17">
-        <v>1.076204807527998</v>
+        <v>1.010668637302219</v>
       </c>
       <c r="N17">
-        <v>1.07385713880267</v>
+        <v>0.9766395595275544</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066875539570612</v>
+        <v>0.9490226849616741</v>
       </c>
       <c r="D18">
-        <v>1.05590879654239</v>
+        <v>1.015437121016463</v>
       </c>
       <c r="E18">
-        <v>1.069015864607074</v>
+        <v>0.9758320823725353</v>
       </c>
       <c r="F18">
-        <v>1.07332684523449</v>
+        <v>0.9989603525047996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042330896273649</v>
+        <v>1.04187688142456</v>
       </c>
       <c r="J18">
-        <v>1.072780636482088</v>
+        <v>0.9781602092059405</v>
       </c>
       <c r="K18">
-        <v>1.059165682538415</v>
+        <v>1.028994605636612</v>
       </c>
       <c r="L18">
-        <v>1.072230102584525</v>
+        <v>0.9900814465520577</v>
       </c>
       <c r="M18">
-        <v>1.076527305192947</v>
+        <v>1.012797055781892</v>
       </c>
       <c r="N18">
-        <v>1.074304108035551</v>
+        <v>0.9795493088995569</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067054693956595</v>
+        <v>0.9502007278193124</v>
       </c>
       <c r="D19">
-        <v>1.055986369021443</v>
+        <v>1.015939411434472</v>
       </c>
       <c r="E19">
-        <v>1.069163400922431</v>
+        <v>0.9767782074126886</v>
       </c>
       <c r="F19">
-        <v>1.073450846251036</v>
+        <v>0.999756770388485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042354202293307</v>
+        <v>1.042078678441795</v>
       </c>
       <c r="J19">
-        <v>1.072932714825361</v>
+        <v>0.979140169031754</v>
       </c>
       <c r="K19">
-        <v>1.059229000375065</v>
+        <v>1.029425467952345</v>
       </c>
       <c r="L19">
-        <v>1.072363361632017</v>
+        <v>0.9909434211152756</v>
       </c>
       <c r="M19">
-        <v>1.076637170230733</v>
+        <v>1.013515137633</v>
       </c>
       <c r="N19">
-        <v>1.074456402347516</v>
+        <v>0.9805306603807261</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066253036007212</v>
+        <v>0.9448804082829045</v>
       </c>
       <c r="D20">
-        <v>1.055639208325255</v>
+        <v>1.013674218118437</v>
       </c>
       <c r="E20">
-        <v>1.068503199085087</v>
+        <v>0.9725071638714406</v>
       </c>
       <c r="F20">
-        <v>1.072895933128249</v>
+        <v>0.9961627580006077</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042249765127192</v>
+        <v>1.041167098438192</v>
       </c>
       <c r="J20">
-        <v>1.072252148393929</v>
+        <v>0.9747148827913905</v>
       </c>
       <c r="K20">
-        <v>1.058945542062404</v>
+        <v>1.027480810175856</v>
       </c>
       <c r="L20">
-        <v>1.071766980218837</v>
+        <v>0.9870513047350454</v>
       </c>
       <c r="M20">
-        <v>1.076145439685701</v>
+        <v>1.010273417944105</v>
       </c>
       <c r="N20">
-        <v>1.073774869433689</v>
+        <v>0.9760990897263138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063638931949987</v>
+        <v>0.9265788450828023</v>
       </c>
       <c r="D21">
-        <v>1.054506323272885</v>
+        <v>1.005949087944673</v>
       </c>
       <c r="E21">
-        <v>1.066349943070145</v>
+        <v>0.9578538345839004</v>
       </c>
       <c r="F21">
-        <v>1.071085593245152</v>
+        <v>0.9838574059239581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041906572073314</v>
+        <v>1.038029977821599</v>
       </c>
       <c r="J21">
-        <v>1.070031768460766</v>
+        <v>0.9595027722541415</v>
       </c>
       <c r="K21">
-        <v>1.058018922853011</v>
+        <v>1.020818622807333</v>
       </c>
       <c r="L21">
-        <v>1.069820675536752</v>
+        <v>0.9736802282225958</v>
       </c>
       <c r="M21">
-        <v>1.074539870520133</v>
+        <v>0.9991511971937574</v>
       </c>
       <c r="N21">
-        <v>1.07155133630634</v>
+        <v>0.9608653762472485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.061989140230612</v>
+        <v>0.9141654387629151</v>
       </c>
       <c r="D22">
-        <v>1.053790730405412</v>
+        <v>1.000772368158108</v>
       </c>
       <c r="E22">
-        <v>1.064990685366184</v>
+        <v>0.9479518357591675</v>
       </c>
       <c r="F22">
-        <v>1.069942443509787</v>
+        <v>0.97556612602941</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041687963791746</v>
+        <v>1.035904833091716</v>
       </c>
       <c r="J22">
-        <v>1.068629590926973</v>
+        <v>0.9491967964150098</v>
       </c>
       <c r="K22">
-        <v>1.057432377618445</v>
+        <v>1.016328539796817</v>
       </c>
       <c r="L22">
-        <v>1.068591134893955</v>
+        <v>0.9646300394117031</v>
       </c>
       <c r="M22">
-        <v>1.073524982230447</v>
+        <v>0.9916376758856581</v>
       </c>
       <c r="N22">
-        <v>1.070147167519616</v>
+        <v>0.9505447647403132</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.062864326446042</v>
+        <v>0.9208421311366435</v>
       </c>
       <c r="D23">
-        <v>1.054170396678463</v>
+        <v>1.003550140810393</v>
       </c>
       <c r="E23">
-        <v>1.065711777125742</v>
+        <v>0.9532738475861209</v>
       </c>
       <c r="F23">
-        <v>1.070548922477027</v>
+        <v>0.9800198824194764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041804122017262</v>
+        <v>1.037047353973201</v>
       </c>
       <c r="J23">
-        <v>1.069373504098967</v>
+        <v>0.9547386124922086</v>
       </c>
       <c r="K23">
-        <v>1.057743693855322</v>
+        <v>1.018740406009699</v>
       </c>
       <c r="L23">
-        <v>1.069243498674253</v>
+        <v>0.9694956453097276</v>
       </c>
       <c r="M23">
-        <v>1.074063513055716</v>
+        <v>0.9956755547765036</v>
       </c>
       <c r="N23">
-        <v>1.070892137133643</v>
+        <v>0.9560944508319968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066296759496704</v>
+        <v>0.9451738832300558</v>
       </c>
       <c r="D24">
-        <v>1.055658146155433</v>
+        <v>1.013798948263063</v>
       </c>
       <c r="E24">
-        <v>1.068539208988122</v>
+        <v>0.9727426325591533</v>
       </c>
       <c r="F24">
-        <v>1.072926202037761</v>
+        <v>0.996360818785621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042255471212656</v>
+        <v>1.041217394998598</v>
       </c>
       <c r="J24">
-        <v>1.072289271693013</v>
+        <v>0.9749589558508518</v>
       </c>
       <c r="K24">
-        <v>1.05896101094904</v>
+        <v>1.027587996135694</v>
       </c>
       <c r="L24">
-        <v>1.071799513624677</v>
+        <v>0.98726594567023</v>
       </c>
       <c r="M24">
-        <v>1.076172267260477</v>
+        <v>1.01045214535397</v>
       </c>
       <c r="N24">
-        <v>1.073812045452116</v>
+        <v>0.976343509397515</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070254160674468</v>
+        <v>0.9702714155027867</v>
       </c>
       <c r="D25">
-        <v>1.057370596020469</v>
+        <v>1.024556977755253</v>
       </c>
       <c r="E25">
-        <v>1.07179765241344</v>
+        <v>0.9929319001205861</v>
       </c>
       <c r="F25">
-        <v>1.075664241495245</v>
+        <v>1.01337640686723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042767082332178</v>
+        <v>1.04550898774344</v>
       </c>
       <c r="J25">
-        <v>1.075647193343127</v>
+        <v>0.9958424243956745</v>
       </c>
       <c r="K25">
-        <v>1.060356843178307</v>
+        <v>1.036785674066312</v>
       </c>
       <c r="L25">
-        <v>1.074741188789528</v>
+        <v>1.005640939209876</v>
       </c>
       <c r="M25">
-        <v>1.078596542653539</v>
+        <v>1.025770560459834</v>
       </c>
       <c r="N25">
-        <v>1.077174735736132</v>
+        <v>0.9972566348630389</v>
       </c>
     </row>
   </sheetData>
